--- a/data/spring-cloud-shop/shop-settlement-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-settlement-api_structure.xlsx
@@ -219,40 +219,79 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>REDIS_DELIVERY_TIME</t>
+  </si>
+  <si>
     <t>REDIS_DELIVERY_AMOUNT</t>
   </si>
   <si>
     <t>REDIS_FREE_DELIVERY_ORDER_AMOUNT</t>
   </si>
   <si>
-    <t>REDIS_DELIVERY_TIME</t>
-  </si>
-  <si>
     <t>settlementOrderService</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>redissonClient</t>
   </si>
   <si>
     <t>org.redisson.api.RedissonClient</t>
   </si>
   <si>
+    <t>orderCartClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.cart.client.OrderCartClient</t>
+  </si>
+  <si>
+    <t>orderTradeClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.order.client.OrderTradeClient</t>
+  </si>
+  <si>
+    <t>redisTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.RedisTemplate</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>addressClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.user.client.AddressClient</t>
+  </si>
+  <si>
+    <t>userOrderClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.order.client.UserOrderClient</t>
+  </si>
+  <si>
+    <t>cartClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.cart.client.CartClient</t>
+  </si>
+  <si>
     <t>sellerOrderClient</t>
   </si>
   <si>
     <t>quick.pager.shop.order.client.SellerOrderClient</t>
   </si>
   <si>
-    <t>orderTradeClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.order.client.OrderTradeClient</t>
-  </si>
-  <si>
-    <t>addressClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.user.client.AddressClient</t>
+    <t>goodsSkuClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.goods.client.GoodsSkuClient</t>
   </si>
   <si>
     <t>userAccountClient</t>
@@ -261,49 +300,10 @@
     <t>quick.pager.shop.user.client.UserAccountClient</t>
   </si>
   <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>redisTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.RedisTemplate</t>
-  </si>
-  <si>
     <t>discountCouponClient</t>
   </si>
   <si>
     <t>quick.pager.shop.activity.client.DiscountCouponClient</t>
-  </si>
-  <si>
-    <t>cartClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.cart.client.CartClient</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>goodsSkuClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.goods.client.GoodsSkuClient</t>
-  </si>
-  <si>
-    <t>userOrderClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.order.client.UserOrderClient</t>
-  </si>
-  <si>
-    <t>orderCartClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.cart.client.OrderCartClient</t>
   </si>
   <si>
     <t>Source Class Name</t>
